--- a/src/Products.xlsx
+++ b/src/Products.xlsx
@@ -98,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +410,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,7 +434,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -445,7 +448,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -459,7 +462,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
